--- a/Documents/Agile-user-story-template.xlsx
+++ b/Documents/Agile-user-story-template.xlsx
@@ -118,16 +118,16 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Book Antiqua"/>
-        <family val="1"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1. The Customer will enter all personal details
-2. Validate the details
-3. The system checks the eligibility of the user through the loan eligibility calculator.
-4. The eligible user will be displayed with the loan amount, tenure and rate of interest.
-5. The willing customer will click on upload documents button.
-6. Redirects to upload documents web page.</t>
+      <t xml:space="preserve">1. Create a form to enter all personal details like Name, age, sex, date of birth, address, employment type, employer name, salary, EMI(if any),email id, gender, purpose of loan(currently only personal loan) 
+2. Validate the above recorded details
+3. Check the eligibility of the user using the loan eligibility calculator.
+4. Display the eligibility status to the customer.The customer is given an option to continue with the loan applcation process if eligible.
+5. Redirect  to upload documents web page when clicked on ‘Upload Documents Button’. </t>
     </r>
   </si>
   <si>
@@ -171,7 +171,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -223,12 +223,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Book Antiqua"/>
-      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -314,7 +308,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -363,7 +357,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -451,9 +445,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3102120</xdr:colOff>
+      <xdr:colOff>3101760</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>60480</xdr:rowOff>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -466,8 +460,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419040" y="9756720"/>
-          <a:ext cx="19834200" cy="3247560"/>
+          <a:off x="419040" y="10480680"/>
+          <a:ext cx="19833840" cy="3246840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -489,8 +483,8 @@
   </sheetPr>
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -583,7 +577,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="201" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="n">
         <v>1</v>
       </c>
